--- a/【NBS】現行NBS抽出データ/10_依頼事項/【NBS】現行NBS抽出データ_CAICAテクノロジーズさんへの依頼事項_20250120.xlsx
+++ b/【NBS】現行NBS抽出データ/10_依頼事項/【NBS】現行NBS抽出データ_CAICAテクノロジーズさんへの依頼事項_20250120.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttcomgroup-my.sharepoint.com/personal/9859962_coe_ntt_com/Documents/SecuredPC/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nbs\git_work\NBS\【NBS】現行NBS抽出データ\10_依頼事項\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{47F316F9-4872-454B-B37F-C4C2F6DEEB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0356BC39-AAF3-42A6-BB1B-201835A17CE8}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="105" windowWidth="22680" windowHeight="14700" tabRatio="738" xr2:uid="{BFB8F4AF-5522-4F9E-8862-D5E8B0FC0B6E}"/>
+    <workbookView xWindow="500" yWindow="110" windowWidth="22680" windowHeight="14700" tabRatio="738" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="御見積依頼事項" sheetId="15" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="（補足）内容" sheetId="5" r:id="rId8"/>
     <sheet name="Sheet5" sheetId="14" state="hidden" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="238">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1509,10 +1508,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>問合せCSV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>問合せの「完了日時」＝2017/10/1　0:00までのデータ全件</t>
     <rPh sb="0" eb="2">
       <t>トイアワ</t>
@@ -1526,10 +1521,6 @@
     <rPh sb="31" eb="33">
       <t>ゼンケン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>問合せ添付ファイルデータ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2847,11 +2838,23 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>問合せCSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問合せ添付ファイルデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3044,6 +3047,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3089,15 +3098,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3132,7 +3135,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4881C6CD-E351-74E7-E5B6-E250941C40CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4881C6CD-E351-74E7-E5B6-E250941C40CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3179,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38910CE0-A1AB-7ACC-DE9A-ED168DAEDDA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38910CE0-A1AB-7ACC-DE9A-ED168DAEDDA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3225,7 +3228,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7D80A1-E8F2-4532-9E2F-A5D592E89C08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF7D80A1-E8F2-4532-9E2F-A5D592E89C08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3269,7 +3272,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B6F9736-583E-69A5-B835-A4FA21424A48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B6F9736-583E-69A5-B835-A4FA21424A48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3330,7 +3333,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2DC6D62-C651-EB23-A262-4528AB614416}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2DC6D62-C651-EB23-A262-4528AB614416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,209 +3678,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BA6B7E-5E97-4B0C-AC1E-E4785EDC3A11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="6.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
         <v>189</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" t="s">
         <v>198</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D15" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D16" s="26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D18" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D19" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D20" t="s">
+      <c r="C33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C28" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C88" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C29" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C38" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C88" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3889,26 +3892,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCBAB4B-3DDC-4A46-A9A8-4ED7DD78A8E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -3966,7 +3969,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -3982,7 +3985,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4000,7 +4003,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4018,7 +4021,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4036,7 +4039,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4054,7 +4057,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -4092,7 +4095,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -4112,7 +4115,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -4137,32 +4140,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E271EB92-57AC-4C6D-ABDF-1EAC673CDF7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25:C29"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="47.75" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
     <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -4179,18 +4182,18 @@
         <v>94</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4201,13 +4204,13 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A7" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4216,13 +4219,13 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1" t="s">
         <v>99</v>
       </c>
@@ -4231,13 +4234,13 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="1" t="s">
         <v>108</v>
       </c>
@@ -4246,13 +4249,13 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1" t="s">
         <v>171</v>
       </c>
@@ -4261,16 +4264,16 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
         <f>ROW()-2</f>
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>231</v>
+      <c r="C8" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>51</v>
@@ -4280,13 +4283,13 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
         <f t="shared" ref="A9:A34" si="1">ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
@@ -4295,13 +4298,13 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="7" t="s">
         <v>99</v>
       </c>
@@ -4310,13 +4313,13 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="7" t="s">
         <v>108</v>
       </c>
@@ -4325,13 +4328,13 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="7" t="s">
         <v>171</v>
       </c>
@@ -4340,52 +4343,52 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="24"/>
+      <c r="B13" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="26"/>
       <c r="D13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="182.25" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="180" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="7" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>232</v>
+      <c r="C15" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>51</v>
@@ -4395,13 +4398,13 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
@@ -4410,13 +4413,13 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="1" t="s">
         <v>99</v>
       </c>
@@ -4425,13 +4428,13 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="1" t="s">
         <v>108</v>
       </c>
@@ -4440,13 +4443,13 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>171</v>
       </c>
@@ -4454,19 +4457,19 @@
         <v>174</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>233</v>
+      <c r="C20" s="18" t="s">
+        <v>231</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>51</v>
@@ -4476,13 +4479,13 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="1" t="s">
         <v>16</v>
       </c>
@@ -4491,13 +4494,13 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="1" t="s">
         <v>99</v>
       </c>
@@ -4506,13 +4509,13 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="1" t="s">
         <v>108</v>
       </c>
@@ -4521,13 +4524,13 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="1" t="s">
         <v>171</v>
       </c>
@@ -4536,16 +4539,16 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>234</v>
+      <c r="C25" s="23" t="s">
+        <v>232</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>51</v>
@@ -4555,13 +4558,13 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
@@ -4570,13 +4573,13 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="1" t="s">
         <v>99</v>
       </c>
@@ -4585,13 +4588,13 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="1" t="s">
         <v>108</v>
       </c>
@@ -4600,13 +4603,13 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="1" t="s">
         <v>171</v>
       </c>
@@ -4615,15 +4618,15 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -4634,13 +4637,13 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="7" t="s">
         <v>16</v>
       </c>
@@ -4649,13 +4652,13 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="7" t="s">
         <v>99</v>
       </c>
@@ -4664,13 +4667,13 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="7" t="s">
         <v>108</v>
       </c>
@@ -4679,13 +4682,13 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="36.75" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>171</v>
       </c>
@@ -4716,28 +4719,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD002F51-C24C-4B3C-9B68-534C2532CF18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4785,7 +4788,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4809,7 +4812,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4833,7 +4836,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4857,7 +4860,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4881,7 +4884,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4905,7 +4908,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4925,11 +4928,11 @@
         <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4953,7 +4956,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4977,7 +4980,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5001,7 +5004,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5025,7 +5028,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5049,7 +5052,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5073,7 +5076,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5125,7 +5128,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5173,7 +5176,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5187,13 +5190,13 @@
         <v>105</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5213,7 +5216,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5240,28 +5243,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44401D9-5191-4224-BFE5-FCFB33BE57A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
     <col min="8" max="8" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -5285,7 +5288,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5307,7 +5310,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5329,7 +5332,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5351,7 +5354,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5375,7 +5378,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5421,7 +5424,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5439,7 +5442,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5459,7 +5462,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5477,7 +5480,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5497,7 +5500,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5522,14 +5525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A08C86E-222A-4BCB-AED7-7F100FE17CCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
@@ -5540,12 +5543,12 @@
     <col min="8" max="8" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -5569,7 +5572,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5593,7 +5596,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5617,7 +5620,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5641,7 +5644,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5661,7 +5664,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5701,7 +5704,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5748,14 +5751,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DDAF51-8B3B-4B28-AE59-70AAA463EB0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="5" width="21.75" customWidth="1"/>
@@ -5764,12 +5767,12 @@
     <col min="8" max="8" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5817,7 +5820,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5841,7 +5844,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5865,7 +5868,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5889,7 +5892,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5913,7 +5916,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5937,7 +5940,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5961,7 +5964,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -6076,51 +6079,51 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECDA6CF-703C-45D8-803B-0FB03678F446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -6133,24 +6136,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89474F27-CA1F-4852-A5FE-7DDD0D60A35D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="47.375" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>177</v>
       </c>
@@ -6306,18 +6309,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6339,6 +6342,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A7D64C-7543-47BE-9ABD-043478A474B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8196FE07-ABDC-49BD-AE23-1CEABD8350AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="77b94a6e-676d-428e-9b64-6f8fc063028c"/>
@@ -6352,12 +6363,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A7D64C-7543-47BE-9ABD-043478A474B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>